--- a/databases/aeronaves_militares_arbitrado.xlsx
+++ b/databases/aeronaves_militares_arbitrado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\UFABC\QUADRIMESTRES\17º QUADRIMESTRE\Trabalho de Graduação em Engenharia III\Monografia\Subrotinas\k_means\banco_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92700619-5783-4F03-ACEA-D3CE29A250C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92700619-5783-4F03-ACEA-D3CE29A250C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$A:$A,data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +35,154 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
-    <t>Name</t>
+    <t>Wingspan</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Tornado F Mk.3</t>
+  </si>
+  <si>
+    <t>F-111F 'Aardvark'</t>
+  </si>
+  <si>
+    <t>Su-27 'Flanker-B'</t>
+  </si>
+  <si>
+    <t>MiG-31M 'Foxhound'</t>
+  </si>
+  <si>
+    <t>Rafale C</t>
+  </si>
+  <si>
+    <t>Chendgu J-10</t>
+  </si>
+  <si>
+    <t>F-35 Joint Strike Fighter</t>
+  </si>
+  <si>
+    <t>Saab JA 37 Viggen</t>
+  </si>
+  <si>
+    <t>W/S</t>
+  </si>
+  <si>
+    <t>T/W</t>
+  </si>
+  <si>
+    <t>Mig-23</t>
+  </si>
+  <si>
+    <t>MTOW [kg]</t>
+  </si>
+  <si>
+    <t>VMO [km/h]</t>
+  </si>
+  <si>
+    <t>wS [m2]</t>
+  </si>
+  <si>
+    <t>Ceiling [m]</t>
+  </si>
+  <si>
+    <t>British Electric Lightning F.6</t>
+  </si>
+  <si>
+    <t>Supermarine Scimitar F.1</t>
+  </si>
+  <si>
+    <t>F-104G Starfighter</t>
+  </si>
+  <si>
+    <t>F-14A Tomcat</t>
+  </si>
+  <si>
+    <t>F-15C Eagle</t>
+  </si>
+  <si>
+    <t>MiG-27M Flogger</t>
+  </si>
+  <si>
+    <t>F-101B Voodoo</t>
+  </si>
+  <si>
+    <t>F-105D Thunderchief</t>
+  </si>
+  <si>
+    <t>MiG-25RB Foxbat-C</t>
+  </si>
+  <si>
+    <t>Sukhoi Su-7B</t>
+  </si>
+  <si>
+    <t>Su-17 Fitter C</t>
+  </si>
+  <si>
+    <t>F-111A Aardvark</t>
+  </si>
+  <si>
+    <t>F-5A Tiger</t>
+  </si>
+  <si>
+    <t>A-10A Thunderbolt II</t>
+  </si>
+  <si>
+    <t>F-15E Strike Eagle</t>
+  </si>
+  <si>
+    <t>Saab JAS 39 Gripen</t>
+  </si>
+  <si>
+    <t>Mig-19</t>
+  </si>
+  <si>
+    <t>Gloster Javelin</t>
+  </si>
+  <si>
+    <t>MiG-25 Foxbat</t>
+  </si>
+  <si>
+    <t>F-117A Nighthawk</t>
+  </si>
+  <si>
+    <t>F/A-18E/F  Super Hornet</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-50</t>
+  </si>
+  <si>
+    <t>Su-35 Super Flanker</t>
+  </si>
+  <si>
+    <t>F-16D Fighting Falcon</t>
+  </si>
+  <si>
+    <t>F-16A Falcon</t>
+  </si>
+  <si>
+    <t>Sukhoi Su-15 (T-58D)</t>
+  </si>
+  <si>
+    <t>F/A-22 Raptor</t>
+  </si>
+  <si>
+    <t>F-14D 'Tomcat</t>
+  </si>
+  <si>
+    <t>MiG-29A Fulcrum</t>
+  </si>
+  <si>
+    <t>Shenyang J-15</t>
   </si>
   <si>
     <t>Entry into service</t>
@@ -52,21 +195,12 @@
 4 = jet</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Number
 of
 engines</t>
-  </si>
-  <si>
-    <t>Wingspan</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Height</t>
   </si>
   <si>
     <t>Wing
@@ -79,23 +213,8 @@
 max</t>
   </si>
   <si>
-    <t>wS [m2]</t>
-  </si>
-  <si>
     <t>Empty
 Weight [kg]</t>
-  </si>
-  <si>
-    <t>MTOW [kg]</t>
-  </si>
-  <si>
-    <t>VMO [km/h]</t>
-  </si>
-  <si>
-    <t>Ceiling [m]</t>
-  </si>
-  <si>
-    <t>Range</t>
   </si>
   <si>
     <t>Total
@@ -106,137 +225,14 @@
 Conversion</t>
   </si>
   <si>
-    <t>T/W</t>
-  </si>
-  <si>
-    <t>W/S</t>
-  </si>
-  <si>
-    <t>A-10A Thunderbolt II</t>
-  </si>
-  <si>
-    <t>British Electric Lightning F.6</t>
-  </si>
-  <si>
-    <t>Chendgu J-10</t>
-  </si>
-  <si>
     <t>Embraer EMB-314</t>
-  </si>
-  <si>
-    <t>F/A-18E/F  Super Hornet</t>
-  </si>
-  <si>
-    <t>F/A-22 Raptor</t>
-  </si>
-  <si>
-    <t>F-101B Voodoo</t>
-  </si>
-  <si>
-    <t>F-104G Starfighter</t>
-  </si>
-  <si>
-    <t>F-105D Thunderchief</t>
-  </si>
-  <si>
-    <t>F-111A Aardvark</t>
-  </si>
-  <si>
-    <t>F-111F 'Aardvark'</t>
-  </si>
-  <si>
-    <t>F-117A Nighthawk</t>
-  </si>
-  <si>
-    <t>F-14A Tomcat</t>
-  </si>
-  <si>
-    <t>F-14D 'Tomcat</t>
-  </si>
-  <si>
-    <t>F-15C Eagle</t>
-  </si>
-  <si>
-    <t>F-15E Strike Eagle</t>
-  </si>
-  <si>
-    <t>F-16A Falcon</t>
-  </si>
-  <si>
-    <t>F-16D Fighting Falcon</t>
-  </si>
-  <si>
-    <t>F-35 Joint Strike Fighter</t>
-  </si>
-  <si>
-    <t>F-5A Tiger</t>
-  </si>
-  <si>
-    <t>Gloster Javelin</t>
-  </si>
-  <si>
-    <t>Mig-19</t>
-  </si>
-  <si>
-    <t>Mig-23</t>
-  </si>
-  <si>
-    <t>MiG-25 Foxbat</t>
-  </si>
-  <si>
-    <t>MiG-25RB Foxbat-C</t>
-  </si>
-  <si>
-    <t>MiG-27M Flogger</t>
-  </si>
-  <si>
-    <t>MiG-29A Fulcrum</t>
-  </si>
-  <si>
-    <t>MiG-31M 'Foxhound'</t>
-  </si>
-  <si>
-    <t>Rafale C</t>
-  </si>
-  <si>
-    <t>Saab JA 37 Viggen</t>
-  </si>
-  <si>
-    <t>Saab JAS 39 Gripen</t>
-  </si>
-  <si>
-    <t>Shenyang J-15</t>
-  </si>
-  <si>
-    <t>Su-17 Fitter C</t>
-  </si>
-  <si>
-    <t>Su-27 'Flanker-B'</t>
-  </si>
-  <si>
-    <t>Su-35 Super Flanker</t>
-  </si>
-  <si>
-    <t>Sukhoi Su-15 (T-58D)</t>
-  </si>
-  <si>
-    <t>Sukhoi Su-7B</t>
-  </si>
-  <si>
-    <t>Supermarine Scimitar F.1</t>
-  </si>
-  <si>
-    <t>Tornado F Mk.3</t>
-  </si>
-  <si>
-    <t>Yakovlev Yak-50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -17830,7 +17826,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -18129,101 +18125,101 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="31.5703125" style="1"/>
+    <col min="9" max="10" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="31.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="84.75" customHeight="1">
+    <row r="1" spans="1:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="21" customHeight="1">
+    <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3">
         <f>VLOOKUP($A2,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -18302,9 +18298,9 @@
         <v>482.45054243777923</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <f>VLOOKUP($A3,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -18383,9 +18379,9 @@
         <v>443.76614228692176</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45">
+    <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <f>VLOOKUP($A4,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -18464,9 +18460,9 @@
         <v>558.91238670694861</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.45">
+    <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3">
         <v>2003</v>
@@ -18526,9 +18522,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.45">
+    <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <f>VLOOKUP($A6,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -18607,9 +18603,9 @@
         <v>644.49946178686753</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.45">
+    <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3">
         <f>VLOOKUP($A7,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -18688,7 +18684,7 @@
         <v>348.92307692307691</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.45">
+    <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -18769,9 +18765,9 @@
         <v>695.1740274934192</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.45">
+    <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
         <f>VLOOKUP($A9,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -18850,9 +18846,9 @@
         <v>722.83205268935239</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.45">
+    <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <f>VLOOKUP($A10,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -18931,9 +18927,9 @@
         <v>670.21812080536915</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.45">
+    <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3">
         <f>VLOOKUP($A11,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19012,9 +19008,9 @@
         <v>821.66366464712621</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.45">
+    <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <f>VLOOKUP($A12,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19093,9 +19089,9 @@
         <v>742.73784182086126</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.45">
+    <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3">
         <f>VLOOKUP($A13,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19174,9 +19170,9 @@
         <v>224.87252124645892</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.45">
+    <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
         <f>VLOOKUP($A14,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19255,9 +19251,9 @@
         <v>642.48428272051819</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.45">
+    <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3">
         <f>VLOOKUP($A15,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19336,9 +19332,9 @@
         <v>513.7614678899082</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.45">
+    <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <f>VLOOKUP($A16,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19417,9 +19413,9 @@
         <v>546.10481586402273</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.45">
+    <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <f>VLOOKUP($A17,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19498,9 +19494,9 @@
         <v>645.13274336283189</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.45">
+    <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3">
         <f>VLOOKUP($A18,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19579,9 +19575,9 @@
         <v>609.67741935483878</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.45">
+    <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <f>VLOOKUP($A19,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19660,9 +19656,9 @@
         <v>575.5197132616488</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.45">
+    <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3">
         <f>VLOOKUP($A20,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19741,9 +19737,9 @@
         <v>538.64168618266979</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.45">
+    <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
         <f>VLOOKUP($A21,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19822,9 +19818,9 @@
         <v>593.66687777074105</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.45">
+    <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3">
         <f>VLOOKUP($A22,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19903,9 +19899,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.45">
+    <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <f>VLOOKUP($A23,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -19984,9 +19980,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.45">
+    <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3">
         <f>VLOOKUP($A24,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20065,9 +20061,9 @@
         <v>476.6</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.45">
+    <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
         <f>VLOOKUP($A25,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20146,9 +20142,9 @@
         <v>636.98750659862753</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.45">
+    <row r="26" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
         <f>VLOOKUP($A26,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20227,9 +20223,9 @@
         <v>724.96920640506778</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.45">
+    <row r="27" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <f>VLOOKUP($A27,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20308,9 +20304,9 @@
         <v>737.61467889908261</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.45">
+    <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3">
         <f>VLOOKUP($A28,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20389,9 +20385,9 @@
         <v>486.84210526315792</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.45">
+    <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3">
         <f>VLOOKUP($A29,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20470,9 +20466,9 @@
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.45">
+    <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3">
         <f>VLOOKUP($A30,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20551,9 +20547,9 @@
         <v>423.91304347826087</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.45">
+    <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3">
         <f>VLOOKUP($A31,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20632,9 +20628,9 @@
         <v>325.67049808429118</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.45">
+    <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3">
         <f>VLOOKUP($A32,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20713,9 +20709,9 @@
         <v>415.8</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.45">
+    <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3">
         <f>VLOOKUP($A33,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20794,9 +20790,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.45">
+    <row r="34" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3">
         <f>VLOOKUP($A34,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20875,9 +20871,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="14.45">
+    <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B35" s="3">
         <f>VLOOKUP($A35,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -20956,9 +20952,9 @@
         <v>483.87096774193549</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="14.45">
+    <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3">
         <f>VLOOKUP($A36,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -21037,9 +21033,9 @@
         <v>548.38709677419354</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.45">
+    <row r="37" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3">
         <f>VLOOKUP($A37,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -21118,9 +21114,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.45">
+    <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3">
         <f>VLOOKUP($A38,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -21199,9 +21195,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="14.45">
+    <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3">
         <f>VLOOKUP($A39,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -21280,9 +21276,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.45">
+    <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B40" s="3">
         <f>VLOOKUP($A40,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -21361,9 +21357,9 @@
         <v>932.9</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.45">
+    <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
         <f>VLOOKUP($A41,[1]data!$A$1:$T$282,COLUMN(B$1),0)</f>
@@ -21443,7 +21439,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T41">
+  <sortState ref="A2:T41">
     <sortCondition ref="A1"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
